--- a/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>-8,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,36</t>
+          <t>-25,2; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,99</t>
+          <t>-18,18; 8,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,09</t>
+          <t>-25,2; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,08</t>
+          <t>-18,56; 8,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 4,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-4,89%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,23</t>
+          <t>-3,58; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,87</t>
+          <t>0,87; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 8,18</t>
+          <t>-4,9; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 5,86</t>
+          <t>-14,81; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,82</t>
+          <t>-3,77; 4,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,14</t>
+          <t>0,91; 8,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,46</t>
+          <t>-5,05; 2,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 6,58</t>
+          <t>-15,27; 4,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-18,35%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 4,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-4,34; 4,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 8,17</t>
+          <t>-4,86; 2,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,52; -1,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,14; 5,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-4,54; 5,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 8,89</t>
+          <t>-5,06; 3,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,22; -1,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,88</t>
+          <t>-8,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>-9,78%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,49</t>
+          <t>-3,78; 5,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,94</t>
+          <t>-4,62; 3,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,79</t>
+          <t>-0,91; 8,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -1,05</t>
+          <t>-23,33; 5,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 5,08</t>
+          <t>-4,0; 5,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,5</t>
+          <t>-4,86; 4,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,0</t>
+          <t>-0,84; 9,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -1,77</t>
+          <t>-24,99; 6,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-27,09; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 8,17</t>
+          <t>-19,98; 6,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 0,0</t>
+          <t>-27,09; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 8,89</t>
+          <t>-20,06; 7,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,94</t>
+          <t>-1,83; 8,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -0,01</t>
+          <t>-9,74; -0,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 2,11</t>
+          <t>-7,6; 2,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 3,49</t>
+          <t>-28,15; 3,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 10,09</t>
+          <t>-1,86; 9,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -0,06</t>
+          <t>-9,75; -0,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,23</t>
+          <t>-7,87; 2,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 3,61</t>
+          <t>-29,3; 3,66</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,37</t>
+          <t>-3,7; 4,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,36</t>
+          <t>1,24; 7,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,99</t>
+          <t>-5,01; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 4,5</t>
+          <t>-17,03; 2,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,79</t>
+          <t>-3,89; 4,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,09</t>
+          <t>1,34; 8,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,08</t>
+          <t>-5,14; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 4,83</t>
+          <t>-17,81; 2,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,49</t>
+          <t>-6,22; 4,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,94</t>
+          <t>-4,45; 5,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,79</t>
+          <t>-5,15; 2,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,52; -1,05</t>
+          <t>-42,09; 0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 5,08</t>
+          <t>-6,6; 5,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,5</t>
+          <t>-4,67; 5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,0</t>
+          <t>-5,33; 3,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -1,77</t>
+          <t>-43,56; 0,17</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 5,23</t>
+          <t>-3,87; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,87</t>
+          <t>-4,39; 3,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 8,18</t>
+          <t>-0,58; 8,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 5,86</t>
+          <t>-23,59; 5,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,82</t>
+          <t>-4,1; 5,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,14</t>
+          <t>-4,53; 3,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 9,46</t>
+          <t>-0,68; 10,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 6,58</t>
+          <t>-25,35; 6,73</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,77</t>
+          <t>-1,68; 3,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,17</t>
+          <t>-1,79; 2,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,02</t>
+          <t>-2,24; 2,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -2,55</t>
+          <t>-18,05; -2,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,02</t>
+          <t>-1,79; 3,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,31</t>
+          <t>-1,88; 2,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 2,17</t>
+          <t>-2,36; 2,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -2,88</t>
+          <t>-18,99; -2,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 0,0</t>
+          <t>-26,05; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 6,56</t>
+          <t>-19,15; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,09; 0,0</t>
+          <t>-26,05; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 7,04</t>
+          <t>-19,93; 7,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 8,58</t>
+          <t>-2,39; 8,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,62</t>
+          <t>-9,7; -0,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 2,61</t>
+          <t>-7,98; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 3,55</t>
+          <t>-23,1; 3,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 9,9</t>
+          <t>-2,48; 9,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,65</t>
+          <t>-9,8; -0,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 2,74</t>
+          <t>-8,15; 2,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 3,66</t>
+          <t>-23,35; 3,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,47</t>
+          <t>-3,65; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,44</t>
+          <t>1,07; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 2,02</t>
+          <t>-5,41; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 2,8</t>
+          <t>-16,03; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,88</t>
+          <t>-3,81; 5,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,21</t>
+          <t>1,12; 7,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,14</t>
+          <t>-5,54; 2,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 2,91</t>
+          <t>-16,94; 3,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,74</t>
+          <t>-6,22; 4,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 5,16</t>
+          <t>-4,36; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,99</t>
+          <t>-4,93; 2,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 0,28</t>
+          <t>-40,58; -0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,32</t>
+          <t>-6,57; 5,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,68</t>
+          <t>-4,59; 5,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 3,23</t>
+          <t>-5,1; 2,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 0,17</t>
+          <t>-43,83; -0,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,98</t>
+          <t>-3,71; 5,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 3,63</t>
+          <t>-4,12; 3,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,86</t>
+          <t>-1,08; 8,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 5,77</t>
+          <t>-22,54; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,57</t>
+          <t>-3,92; 5,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,93</t>
+          <t>-4,3; 4,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 10,17</t>
+          <t>-1,12; 10,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,35; 6,73</t>
+          <t>-24,01; 5,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,09</t>
+          <t>-1,67; 2,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,14</t>
+          <t>-1,93; 2,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 2,01</t>
+          <t>-2,14; 2,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -2,68</t>
+          <t>-18,91; -2,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,38</t>
+          <t>-1,78; 2,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,29</t>
+          <t>-2,02; 2,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 2,14</t>
+          <t>-2,26; 2,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -2,96</t>
+          <t>-20,13; -2,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/iP18_E_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-4,59%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 7,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 0,0</t>
+          <t>-9,57; -1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,15; 6,66</t>
+          <t>-7,55; 2,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,28; 3,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 7,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 0,0</t>
+          <t>-9,71; -1,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 7,14</t>
+          <t>-7,75; 2,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 3,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-5,09%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 8,56</t>
+          <t>-3,58; 4,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,39</t>
+          <t>0,87; 7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 2,32</t>
+          <t>-4,9; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 3,5</t>
+          <t>-14,84; 4,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 9,61</t>
+          <t>-3,77; 4,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; -0,41</t>
+          <t>0,91; 8,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 2,45</t>
+          <t>-5,05; 2,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 3,63</t>
+          <t>-15,21; 4,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-19,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-20,96%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 4,89</t>
+          <t>-6,73; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 7,21</t>
+          <t>-4,34; 4,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,0</t>
+          <t>-4,86; 2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 2,93</t>
+          <t>-48,23; -1,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 5,41</t>
+          <t>-7,14; 5,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,94</t>
+          <t>-4,54; 5,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 2,14</t>
+          <t>-5,06; 3,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 3,13</t>
+          <t>-52,3; -2,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,88</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>-9,43%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 4,83</t>
+          <t>-3,78; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 4,87</t>
+          <t>-4,62; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 2,76</t>
+          <t>-0,91; 8,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,58; -0,04</t>
+          <t>-22,77; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 5,42</t>
+          <t>-4,0; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 5,35</t>
+          <t>-4,86; 4,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 2,95</t>
+          <t>-0,84; 9,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -0,64</t>
+          <t>-24,48; 7,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-9,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>-0,06%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-10,59%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,14</t>
+          <t>-2,01; 2,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,74</t>
+          <t>-1,82; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 8,77</t>
+          <t>-2,11; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 5,19</t>
+          <t>-19,48; -3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,7</t>
+          <t>-2,14; 3,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 4,09</t>
+          <t>-1,91; 2,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 10,13</t>
+          <t>-2,22; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 5,62</t>
+          <t>-20,8; -3,64</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-9,17</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-0,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-9,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 2,7</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 2,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 2,09</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-18,91; -2,53</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 2,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-2,02; 2,14</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 2,23</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-20,13; -2,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
